--- a/vendor/mysql_audo_init/feature_prams.xlsx
+++ b/vendor/mysql_audo_init/feature_prams.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/vendor/mysql_audo_init/feature_prams.xlsx
+++ b/vendor/mysql_audo_init/feature_prams.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,28 +26,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pram_field</t>
+    <t>is_tianwang_gray</t>
+  </si>
+  <si>
+    <t>is_tianwang_black</t>
+  </si>
+  <si>
+    <t>is_tianwang_multi_loan</t>
+  </si>
+  <si>
+    <t>is_tianyan_black</t>
+  </si>
+  <si>
+    <t>process_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interface_id</t>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>data_identity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_tianwang_gray</t>
-  </si>
-  <si>
-    <t>is_tianwang_black</t>
-  </si>
-  <si>
-    <t>is_tianwang_multi_loan</t>
-  </si>
-  <si>
-    <t>is_tianyan_black</t>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>tianwang_gray</t>
+  </si>
+  <si>
+    <t>tianwang_black</t>
+  </si>
+  <si>
+    <t>tianwang_multi_loan</t>
+  </si>
+  <si>
+    <t>tianyan_black</t>
   </si>
 </sst>
 </file>
@@ -394,14 +405,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -412,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -423,13 +434,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +448,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +462,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/vendor/mysql_audo_init/feature_prams.xlsx
+++ b/vendor/mysql_audo_init/feature_prams.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,39 +26,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>is_tianwang_gray</t>
-  </si>
-  <si>
-    <t>is_tianwang_black</t>
-  </si>
-  <si>
-    <t>is_tianwang_multi_loan</t>
-  </si>
-  <si>
-    <t>is_tianyan_black</t>
-  </si>
-  <si>
     <t>process_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>direct</t>
-  </si>
-  <si>
     <t>data_identity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tianwang_gray</t>
-  </si>
-  <si>
-    <t>tianwang_black</t>
-  </si>
-  <si>
-    <t>tianwang_multi_loan</t>
-  </si>
-  <si>
-    <t>tianyan_black</t>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_loan_agency</t>
+  </si>
+  <si>
+    <t>is_organization_g_black</t>
+  </si>
+  <si>
+    <t>is_netsky_black</t>
+  </si>
+  <si>
+    <t>is_netsky_longloan</t>
+  </si>
+  <si>
+    <t>is_skyeye_black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_court_shixin</t>
+  </si>
+  <si>
+    <t>is_net_black</t>
+  </si>
+  <si>
+    <t>is_owner_mobile</t>
+  </si>
+  <si>
+    <t>personal_income_ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_negative_info</t>
+  </si>
+  <si>
+    <t>is_netsky_grey</t>
+  </si>
+  <si>
+    <t>is_court_zhixing</t>
+  </si>
+  <si>
+    <t>mobile_local</t>
+  </si>
+  <si>
+    <t>mobile_online_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps_location</t>
   </si>
 </sst>
 </file>
@@ -82,20 +107,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -104,8 +150,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,88 +457,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
